--- a/biology/Botanique/Cladostephus/Cladostephus.xlsx
+++ b/biology/Botanique/Cladostephus/Cladostephus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladostephus est un genre d'algues brunes de l'ordre des Sphacelariales, de la famille monotypique des Cladostephaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Cladostephus est composé du préfixe "clad‑", « branche ; rameau », et du suffixe "‑steph", couronne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Cladostephus est composé du préfixe "clad‑", « branche ; rameau », et du suffixe "‑steph", couronne.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (24 décembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (24 décembre 2022) :
 Cladostephus antarcticus Kützing
 Cladostephus hariotii Sauvageau
 Cladostephus hirsutus (Linnaeus) Boudouresque &amp; M.Perret-Boudouresque ex Heesch &amp; al.
 Cladostephus kuetzingii Heesch, Rindi &amp; W.A.Nelson
 Cladostephus spongiosus (Hudson) C. Agardh, 1817
-Selon World Register of Marine Species                               (24 décembre 2022)[3] :
+Selon World Register of Marine Species                               (24 décembre 2022) :
 Cladostephus antarcticus Kützing, 1856
 Cladostephus hariotii Sauvageau, 1914
 Cladostephus spongiosus (Hudson) C.Agardh, 1817
